--- a/static/Amidas_20250325.xlsx
+++ b/static/Amidas_20250325.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="72">
   <si>
     <t>Question</t>
   </si>
@@ -152,6 +152,27 @@
     <t>Y</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>새로운 권한이 필요한 경우 ITSM을 통해 요청서를 작성하고 팀장의 승인을 받은 후 IT팀에서 해당 권한을 부여함.</t>
+  </si>
+  <si>
+    <t>안함</t>
+  </si>
+  <si>
+    <t>인사팀에서 인사시스템에 인사명령을 입력하면 시스템에서 자동으로 접근권한을 차단함.</t>
+  </si>
+  <si>
+    <t>최소자리: 8, 복잡성: 영문/숫자/특수문자, 변경주기: 90일</t>
+  </si>
+  <si>
+    <t>인프라운영팀 손현호 차장</t>
+  </si>
+  <si>
+    <t>인프라 운영팀 윤대호 과장</t>
+  </si>
+  <si>
     <t>nan</t>
   </si>
   <si>
@@ -161,10 +182,10 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Amidas 시스템은 상용소프트웨어로 SAP를 기반으로 하고 있음</t>
-  </si>
-  <si>
-    <t>클라우드 환경(SaaS)을 사용 중임, SOC1 Report를 수령하고 있음</t>
+    <t>Amidas 시스템은 상용소프트웨어로 SAP를 기반으로 하고 있으며, 회사 내부에서 수정이 가능함.</t>
+  </si>
+  <si>
+    <t>클라우드 환경을 사용하지 않음.</t>
   </si>
   <si>
     <t>운영체제 보안 도구를 사용하지 않음</t>
@@ -174,6 +195,42 @@
   </si>
   <si>
     <t>배치 처리 도구를 사용하지 않음</t>
+  </si>
+  <si>
+    <t>사용자 권한 부여시 승인권자의 승인을 득하고 있하고 있으며 상세 절차는 아래와 같음</t>
+  </si>
+  <si>
+    <t>부서이동자의 권한 회수 절차는 아래와 같음</t>
+  </si>
+  <si>
+    <t>퇴사자의 접근권한 회수 절차는 아래와 같음</t>
+  </si>
+  <si>
+    <t>사용자 권한 모니터링은 권한 부여시 승인권자의 승인을 득하고 있하고 있으며 상세 절차는 아래와 같음</t>
+  </si>
+  <si>
+    <t>Application 패스워드 설정은 아래와 같음</t>
+  </si>
+  <si>
+    <t>데이터 변경시 요청서를 작성하고 승인을 득하는 절차가 존재함.</t>
+  </si>
+  <si>
+    <t>DB 접근 권한 필요시 요청서를 작성하고 승인을 득하는 절차가 존재함.</t>
+  </si>
+  <si>
+    <t>DB 관리자 권한을 보유한 인원은 아래와 같음</t>
+  </si>
+  <si>
+    <t>DB 패스워드 설정은 아래와 같음</t>
+  </si>
+  <si>
+    <t>OS 접근 권한 필요시 요청서를 작성하고 승인을 득하는 절차가 존재함.</t>
+  </si>
+  <si>
+    <t>OS 관리자 권한을 보유한 인원은 아래와 같음</t>
+  </si>
+  <si>
+    <t>OS 패스워드 설정은 아래와 같음</t>
   </si>
 </sst>
 </file>
@@ -559,7 +616,7 @@
         <v>43</v>
       </c>
       <c r="C2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -570,7 +627,7 @@
         <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -581,7 +638,7 @@
         <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -589,188 +646,245 @@
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" t="s">
-        <v>44</v>
-      </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
-      <c r="B7" t="s">
-        <v>44</v>
-      </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>12</v>
       </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>13</v>
       </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>14</v>
       </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
+      <c r="B14" t="s">
+        <v>46</v>
+      </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>16</v>
       </c>
+      <c r="B15" t="s">
+        <v>47</v>
+      </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>17</v>
       </c>
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>18</v>
       </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>19</v>
       </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
       <c r="C18" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>20</v>
       </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
       <c r="C19" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>21</v>
       </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
       <c r="C20" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>22</v>
       </c>
+      <c r="B21" t="s">
+        <v>44</v>
+      </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>23</v>
       </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>24</v>
       </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
       <c r="C23" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>25</v>
       </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
       <c r="C24" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>26</v>
       </c>
+      <c r="B25" t="s">
+        <v>44</v>
+      </c>
       <c r="C25" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
         <v>27</v>
       </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
       <c r="C26" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>28</v>
       </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
       <c r="C27" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>29</v>
       </c>
+      <c r="B28" t="s">
+        <v>49</v>
+      </c>
       <c r="C28" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -778,7 +892,7 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -786,7 +900,7 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -794,7 +908,7 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -802,7 +916,7 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -810,7 +924,7 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -818,7 +932,7 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -826,7 +940,7 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -834,7 +948,7 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -842,7 +956,7 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -850,7 +964,7 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -858,7 +972,7 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -866,7 +980,7 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -874,7 +988,7 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -884,7 +998,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -892,32 +1006,132 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
